--- a/氣象性能評估工具V2/data/obs/2016-06-05_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-05_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="211">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>23.1</t>
+  </si>
+  <si>
     <t>2016-06-05-00</t>
   </si>
   <si>
-    <t>23.1</t>
-  </si>
-  <si>
     <t>28.6</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>29.3</t>
   </si>
   <si>
+    <t>22.5</t>
+  </si>
+  <si>
     <t>2016-06-05-01</t>
   </si>
   <si>
-    <t>22.5</t>
-  </si>
-  <si>
     <t>27.8</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>27.0</t>
   </si>
   <si>
+    <t>21.8</t>
+  </si>
+  <si>
     <t>2016-06-05-02</t>
   </si>
   <si>
-    <t>21.8</t>
-  </si>
-  <si>
     <t>28.0</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>26.9</t>
   </si>
   <si>
+    <t>21.5</t>
+  </si>
+  <si>
     <t>2016-06-05-03</t>
   </si>
   <si>
-    <t>21.5</t>
-  </si>
-  <si>
     <t>26.8</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>26.7</t>
   </si>
   <si>
+    <t>21.6</t>
+  </si>
+  <si>
     <t>2016-06-05-04</t>
   </si>
   <si>
-    <t>21.6</t>
-  </si>
-  <si>
     <t>26.4</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>5.3</t>
   </si>
   <si>
+    <t>22.8</t>
+  </si>
+  <si>
     <t>2016-06-05-06</t>
   </si>
   <si>
-    <t>22.8</t>
-  </si>
-  <si>
     <t>24.7</t>
   </si>
   <si>
@@ -310,12 +310,12 @@
     <t>30.3</t>
   </si>
   <si>
+    <t>23.2</t>
+  </si>
+  <si>
     <t>2016-06-05-07</t>
   </si>
   <si>
-    <t>23.2</t>
-  </si>
-  <si>
     <t>25.1</t>
   </si>
   <si>
@@ -460,12 +460,12 @@
     <t>33.7</t>
   </si>
   <si>
+    <t>24.4</t>
+  </si>
+  <si>
     <t>2016-06-05-12</t>
   </si>
   <si>
-    <t>24.4</t>
-  </si>
-  <si>
     <t>25.4</t>
   </si>
   <si>
@@ -481,12 +481,12 @@
     <t>33.8</t>
   </si>
   <si>
+    <t>24.0</t>
+  </si>
+  <si>
     <t>2016-06-05-13</t>
   </si>
   <si>
-    <t>24.0</t>
-  </si>
-  <si>
     <t>33.3</t>
   </si>
   <si>
@@ -502,12 +502,12 @@
     <t>8.1</t>
   </si>
   <si>
+    <t>23.4</t>
+  </si>
+  <si>
     <t>2016-06-05-14</t>
   </si>
   <si>
-    <t>23.4</t>
-  </si>
-  <si>
     <t>24.6</t>
   </si>
   <si>
@@ -532,12 +532,12 @@
     <t>8.2</t>
   </si>
   <si>
+    <t>22.3</t>
+  </si>
+  <si>
     <t>2016-06-05-16</t>
   </si>
   <si>
-    <t>22.3</t>
-  </si>
-  <si>
     <t>25.6</t>
   </si>
   <si>
@@ -550,12 +550,12 @@
     <t>7.3</t>
   </si>
   <si>
+    <t>21.9</t>
+  </si>
+  <si>
     <t>2016-06-05-17</t>
   </si>
   <si>
-    <t>21.9</t>
-  </si>
-  <si>
     <t>23.9</t>
   </si>
   <si>
@@ -568,12 +568,12 @@
     <t>6.7</t>
   </si>
   <si>
+    <t>20.7</t>
+  </si>
+  <si>
     <t>2016-06-05-18</t>
   </si>
   <si>
-    <t>20.7</t>
-  </si>
-  <si>
     <t>22.0</t>
   </si>
   <si>
@@ -595,12 +595,12 @@
     <t>13.5</t>
   </si>
   <si>
+    <t>20.2</t>
+  </si>
+  <si>
     <t>2016-06-05-20</t>
   </si>
   <si>
-    <t>20.2</t>
-  </si>
-  <si>
     <t>20.9</t>
   </si>
   <si>
@@ -613,12 +613,12 @@
     <t>25.9</t>
   </si>
   <si>
+    <t>20.3</t>
+  </si>
+  <si>
     <t>2016-06-05-21</t>
   </si>
   <si>
-    <t>20.3</t>
-  </si>
-  <si>
     <t>21.7</t>
   </si>
   <si>
@@ -634,25 +634,28 @@
     <t>6.5</t>
   </si>
   <si>
+    <t>19.7</t>
+  </si>
+  <si>
     <t>2016-06-05-22</t>
   </si>
   <si>
-    <t>19.7</t>
-  </si>
-  <si>
     <t>6.1</t>
   </si>
   <si>
+    <t>21.0</t>
+  </si>
+  <si>
     <t>2016-06-05-23</t>
-  </si>
-  <si>
-    <t>21.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -682,8 +685,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,11 +1066,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1139,11 +1143,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
@@ -1216,17 +1220,17 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
@@ -1293,17 +1297,17 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1370,17 +1374,17 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
         <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -1447,11 +1451,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -1490,7 +1494,7 @@
         <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P7" t="s">
         <v>56</v>
@@ -1524,11 +1528,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -1601,11 +1605,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
         <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
@@ -1678,7 +1682,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B10" t="s">
@@ -1755,11 +1759,11 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1832,11 +1836,11 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -1909,7 +1913,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B13" t="s">
@@ -1986,11 +1990,11 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
         <v>148</v>
-      </c>
-      <c r="B14" t="s">
-        <v>149</v>
       </c>
       <c r="C14" t="s">
         <v>97</v>
@@ -2063,11 +2067,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
         <v>155</v>
-      </c>
-      <c r="B15" t="s">
-        <v>156</v>
       </c>
       <c r="C15" t="s">
         <v>109</v>
@@ -2140,11 +2144,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
         <v>162</v>
-      </c>
-      <c r="B16" t="s">
-        <v>163</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -2217,11 +2221,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
         <v>54</v>
@@ -2294,17 +2298,17 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" t="s">
         <v>172</v>
-      </c>
-      <c r="B18" t="s">
-        <v>173</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" t="s">
         <v>174</v>
@@ -2322,7 +2326,7 @@
         <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
         <v>169</v>
@@ -2371,11 +2375,11 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
         <v>178</v>
-      </c>
-      <c r="B19" t="s">
-        <v>179</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -2402,7 +2406,7 @@
         <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
         <v>29</v>
@@ -2414,7 +2418,7 @@
         <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" t="s">
         <v>182</v>
@@ -2448,11 +2452,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" t="s">
         <v>184</v>
-      </c>
-      <c r="B20" t="s">
-        <v>185</v>
       </c>
       <c r="C20" t="s">
         <v>170</v>
@@ -2525,7 +2529,7 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B21" t="s">
@@ -2556,7 +2560,7 @@
         <v>105</v>
       </c>
       <c r="K21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L21" t="s">
         <v>49</v>
@@ -2568,7 +2572,7 @@
         <v>159</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P21" t="s">
         <v>192</v>
@@ -2602,11 +2606,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" t="s">
         <v>193</v>
-      </c>
-      <c r="B22" t="s">
-        <v>194</v>
       </c>
       <c r="C22" t="s">
         <v>79</v>
@@ -2679,11 +2683,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" t="s">
         <v>199</v>
-      </c>
-      <c r="B23" t="s">
-        <v>200</v>
       </c>
       <c r="C23" t="s">
         <v>79</v>
@@ -2756,11 +2760,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" t="s">
         <v>206</v>
-      </c>
-      <c r="B24" t="s">
-        <v>207</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -2787,7 +2791,7 @@
         <v>164</v>
       </c>
       <c r="K24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s">
         <v>35</v>
@@ -2833,17 +2837,17 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" t="s">
         <v>209</v>
-      </c>
-      <c r="B25" t="s">
-        <v>210</v>
       </c>
       <c r="C25" t="s">
         <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
         <v>164</v>
@@ -2876,7 +2880,7 @@
         <v>174</v>
       </c>
       <c r="O25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P25" t="s">
         <v>56</v>
